--- a/画面設計総編集/売上一覧画面設計書.xlsx
+++ b/画面設計総編集/売上一覧画面設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8099\Desktop\system-devel\画面設計総編集\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -984,12 +984,117 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,18 +1107,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
@@ -1032,15 +1125,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,90 +1133,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1159,19 +1159,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53339</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>625574</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6401</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1190,8 +1190,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723899" y="1394460"/>
-          <a:ext cx="7399755" cy="4175760"/>
+          <a:off x="678180" y="1600200"/>
+          <a:ext cx="7496861" cy="3962400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1482,40 +1482,40 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="43" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="71" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="59" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="77" t="s">
         <v>26</v>
       </c>
@@ -1524,48 +1524,48 @@
       <c r="O3" s="79"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="53" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="59" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="44"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="62" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
     </row>
     <row r="6" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
@@ -1575,15 +1575,15 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="2:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
@@ -1609,17 +1609,17 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="87"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
@@ -1645,17 +1645,17 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85" t="s">
+      <c r="J10" s="49"/>
+      <c r="K10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="87"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
     </row>
     <row r="11" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
@@ -1667,11 +1667,11 @@
       <c r="H11" s="25"/>
       <c r="I11" s="33"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="89"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
@@ -1681,17 +1681,17 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="87"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
@@ -1703,11 +1703,11 @@
       <c r="H13" s="25"/>
       <c r="I13" s="33"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="89"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
@@ -1717,17 +1717,17 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="87"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
@@ -1739,11 +1739,11 @@
       <c r="H15" s="25"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="89"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
@@ -1753,17 +1753,17 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85">
+      <c r="J16" s="49"/>
+      <c r="K16" s="50">
         <v>9</v>
       </c>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
     </row>
     <row r="17" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24"/>
@@ -1775,11 +1775,11 @@
       <c r="H17" s="25"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="89"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
@@ -1789,17 +1789,17 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="83" t="s">
+      <c r="I18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85" t="s">
+      <c r="J18" s="49"/>
+      <c r="K18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="87"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -2083,14 +2083,14 @@
         <v>2</v>
       </c>
       <c r="I33" s="8"/>
-      <c r="J33" s="90" t="s">
+      <c r="J33" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="92"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="45"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
@@ -2109,14 +2109,14 @@
         <v>3</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="90" t="s">
+      <c r="J34" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="45"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
@@ -2137,14 +2137,14 @@
         <v>4</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="90" t="s">
+      <c r="J35" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="92"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
@@ -2616,6 +2616,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:K5"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:O10"/>
     <mergeCell ref="J33:O33"/>
     <mergeCell ref="J34:O34"/>
     <mergeCell ref="J35:O35"/>
@@ -2628,25 +2647,6 @@
     <mergeCell ref="K17:O17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:O18"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:K5"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
